--- a/Measurements/Hydrogen measurements overview device 1479.xlsx
+++ b/Measurements/Hydrogen measurements overview device 1479.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rijk\Documents\MEP\MEP_control_software\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B736B441-DB81-4D2C-81DE-859EA5914623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99880809-11E7-4946-9A2C-72190FF4F5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="19416" windowHeight="14856" xr2:uid="{047B82AB-767B-4B06-81AC-11CA0B2A0ECE}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="11928" activeTab="2" xr2:uid="{047B82AB-767B-4B06-81AC-11CA0B2A0ECE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ohm" sheetId="1" r:id="rId1"/>
+    <sheet name="MOhm" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,8 +59,33 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rich</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{F33D73D7-F0F7-4C93-9C93-7590D959CE7F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>0311_1215_WO3196dev1_air_after
+used, as resistance had not stabilised at the end of the measurment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
   <si>
     <t>Measurements</t>
   </si>
@@ -178,6 +205,30 @@
   </si>
   <si>
     <t>0324_1904_WO3196dev9_H2ToAir</t>
+  </si>
+  <si>
+    <t>Unstable source current leads to higher noise</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>DR/R0 Mean</t>
+  </si>
+  <si>
+    <t>DR/R0 Std</t>
+  </si>
+  <si>
+    <t>Std2</t>
+  </si>
+  <si>
+    <t>DR/R0 Air to H2</t>
+  </si>
+  <si>
+    <t>DR/R0 H2 to Air</t>
   </si>
 </sst>
 </file>
@@ -235,27 +286,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="22">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -285,20 +389,92 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2B9BE6E-D96E-447D-BADB-5CDD0228ECE7}" name="Table1" displayName="Table1" ref="A2:K22" totalsRowShown="0">
   <autoFilter ref="A2:K22" xr:uid="{4DAE197E-337D-4384-8BCB-221F7AF7FC6E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
+    <sortCondition ref="A2:A22"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{040893F6-332E-4FC0-B4E9-30D4234357D0}" name="Measurements"/>
     <tableColumn id="7" xr3:uid="{44794E97-A476-4753-9A20-208CF5C0B728}" name="Dev"/>
     <tableColumn id="2" xr3:uid="{D0396E9C-370B-415A-9B5C-B5A0A433D3FB}" name="T (C)"/>
     <tableColumn id="9" xr3:uid="{489B6637-BB50-4C7F-BE59-CFA688DB7947}" name="Type?"/>
-    <tableColumn id="3" xr3:uid="{7F1F1110-11E8-406D-9717-7BA958F50B7B}" name="R_air mean" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{4DF14033-0500-460F-AE80-7C99EE338485}" name="R_air std" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{1949DE0D-5103-4F4B-83AC-80E490C05019}" name="R_h2 mean" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{897795B9-5D51-4341-B1FC-8CFACF4FEFAB}" name="R_h2 std" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{1AB335F1-C6EC-47B0-9A06-76376CA3D3EB}" name="DR/R0" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{7F1F1110-11E8-406D-9717-7BA958F50B7B}" name="R_air mean" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{4DF14033-0500-460F-AE80-7C99EE338485}" name="R_air std" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{1949DE0D-5103-4F4B-83AC-80E490C05019}" name="R_h2 mean" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{897795B9-5D51-4341-B1FC-8CFACF4FEFAB}" name="R_h2 std" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{1AB335F1-C6EC-47B0-9A06-76376CA3D3EB}" name="DR/R0" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>(Table1[[#This Row],[R_air mean]]-Table1[[#This Row],[R_h2 mean]])/Table1[[#This Row],[R_air mean]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B31A0DA0-3EB4-4AC7-AC5A-D151263E12B4}" name="Tau ~ (s)" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{C37E98D5-783C-47AC-A050-0D300D85448F}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{B31A0DA0-3EB4-4AC7-AC5A-D151263E12B4}" name="Tau ~ (s)" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{C37E98D5-783C-47AC-A050-0D300D85448F}" name="Notes" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C3338AD-2C44-4E29-9336-E26845A1C173}" name="Table13" displayName="Table13" ref="A1:K21" totalsRowShown="0">
+  <autoFilter ref="A1:K21" xr:uid="{F4B4A62A-CF54-4C9C-8159-1A6BEFE8B802}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K5">
+    <sortCondition ref="A1:A21"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{FD68A971-7D64-46A8-96FF-E3289FF3C9A1}" name="Measurements"/>
+    <tableColumn id="7" xr3:uid="{6EE69C22-3505-4AE6-B155-A2F6A4AD437D}" name="Dev"/>
+    <tableColumn id="2" xr3:uid="{784EC2E1-DA18-4169-A4F5-C48390C69545}" name="T (C)"/>
+    <tableColumn id="9" xr3:uid="{B6A67B79-7BBE-4A56-83BE-EB720A8503A6}" name="Type?"/>
+    <tableColumn id="3" xr3:uid="{966645DD-8AD3-45F6-895A-2FA5C83DD732}" name="R_air mean" dataDxfId="11">
+      <calculatedColumnFormula>Ohm!E3 *0.000001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{71458716-1D1C-4F82-84F8-33861FE55480}" name="R_air std" dataDxfId="10">
+      <calculatedColumnFormula>Ohm!F3 *0.000001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{95CE5156-364C-4588-BDAE-477958ED0660}" name="R_h2 mean" dataDxfId="8">
+      <calculatedColumnFormula>Ohm!G3 *0.000001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{01A494EE-F56E-41B0-8559-CE2FA4F7A621}" name="R_h2 std" dataDxfId="9">
+      <calculatedColumnFormula>Ohm!H3 *0.000001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{1779F395-2163-401A-B3F0-C2DCDEE7259E}" name="DR/R0" dataDxfId="14" dataCellStyle="Percent">
+      <calculatedColumnFormula>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{F8519A5C-6377-4EE5-BD1C-1BBE16966164}" name="Tau ~ (s)" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{65E411F5-0073-4542-A98F-9591DBA6DC7C}" name="Notes" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{61AF0AB0-3844-4F29-82EB-707D0FC8DE1D}" name="Table5" displayName="Table5" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{BB8B2FE4-0567-4A7B-8151-9D0E564A7357}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BF7F95E9-F44C-4B08-AAC7-114557792BD1}" name="Device"/>
+    <tableColumn id="2" xr3:uid="{8D50B662-7459-4A80-9E6F-38A58300B57F}" name="R_air mean" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2E0CA5FE-3B0C-4224-8759-C93FE248A298}" name="Std" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3E04583B-E626-444D-8604-CDA71617EE47}" name="R_h2 mean" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4C8C02AC-7933-41C5-A95D-D85D9C57AD9E}" name="Std2" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A0DD0235-EA2B-42A6-9D52-B18E5F570922}" name="DR/R0 Mean" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{88B94BE8-57C7-437F-8BC3-5A6D9D6C8E7D}" name="DR/R0 Std" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7531FC81-B754-44C2-82CD-83361E295759}" name="Table6" displayName="Table6" ref="I1:M3" totalsRowShown="0">
+  <autoFilter ref="I1:M3" xr:uid="{A19B3844-AAB0-490C-9912-7FFCDE871BC0}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6FFE0634-2817-4AEA-9DED-A025EA2B75B9}" name="Device"/>
+    <tableColumn id="2" xr3:uid="{0CBB94C2-E524-42FE-BF7A-AD2EB5D4EDEC}" name="DR/R0 Air to H2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9113EC84-40FA-4B32-B26B-5BC607BE57BF}" name="Std"/>
+    <tableColumn id="4" xr3:uid="{55DDA3F3-60ED-4C12-AAAB-B3C82134F07B}" name="DR/R0 H2 to Air" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{FE667E0D-89D0-44D3-9F79-A7DFE5C04C8E}" name="Std2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B78281-BFF3-4055-85B5-C421D227D98E}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1349,4 +1525,1170 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A36AC5-8A00-49F5-AC80-6AA9165FC44A}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
+        <f>Ohm!E3 *0.000001</f>
+        <v>8.8685249176470506</v>
+      </c>
+      <c r="F2" s="1">
+        <f>Ohm!F3 *0.000001</f>
+        <v>1.4882154233855898E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <f>Ohm!G3 *0.000001</f>
+        <v>8.14261267002518</v>
+      </c>
+      <c r="H2" s="1">
+        <f>Ohm!H3 *0.000001</f>
+        <v>1.4193562823215199E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>8.1852647916387189E-2</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <f>Ohm!E5 *0.000001</f>
+        <v>8.9479188000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <f>Ohm!F5 *0.000001</f>
+        <v>1.3293949350487902E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <f>Ohm!G5 *0.000001</f>
+        <v>8.2196644869215199</v>
+      </c>
+      <c r="H3" s="1">
+        <f>Ohm!H5 *0.000001</f>
+        <v>1.9049579139199101E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>8.1388122685968067E-2</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <f>Ohm!E4 *0.000001</f>
+        <v>8.9098996571428497</v>
+      </c>
+      <c r="F4" s="1">
+        <f>Ohm!F4 *0.000001</f>
+        <v>1.9931419266052798E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <f>Ohm!G4 *0.000001</f>
+        <v>8.1902656769230706</v>
+      </c>
+      <c r="H4" s="1">
+        <f>Ohm!H4 *0.000001</f>
+        <v>6.3567769472555498E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>8.0767910741044766E-2</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <f>Ohm!E6 *0.000001</f>
+        <v>9.0320028978224389</v>
+      </c>
+      <c r="F5" s="1">
+        <f>Ohm!F6 *0.000001</f>
+        <v>1.3969384668554099E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <f>Ohm!G6 *0.000001</f>
+        <v>8.2668157076922988</v>
+      </c>
+      <c r="H5" s="1">
+        <f>Ohm!H6 *0.000001</f>
+        <v>5.0753892953320796E-3</v>
+      </c>
+      <c r="I5" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>8.4719546570852206E-2</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
+        <f>Ohm!E7 *0.000001</f>
+        <v>8.7937661693505191</v>
+      </c>
+      <c r="F6" s="1">
+        <f>Ohm!F7 *0.000001</f>
+        <v>1.4577030485162601E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <f>Ohm!G7 *0.000001</f>
+        <v>6.1196739769970101</v>
+      </c>
+      <c r="H6" s="1">
+        <f>Ohm!H7 *0.000001</f>
+        <v>1.3926866834611999E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>0.30408952670059558</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <f>Ohm!E8 *0.000001</f>
+        <v>16.798024480856899</v>
+      </c>
+      <c r="F7" s="1">
+        <f>Ohm!F8 *0.000001</f>
+        <v>0.70761049022126299</v>
+      </c>
+      <c r="G7" s="3">
+        <f>Ohm!G8 *0.000001</f>
+        <v>6.0836131210723901</v>
+      </c>
+      <c r="H7" s="1">
+        <f>Ohm!H8 *0.000001</f>
+        <v>1.9567619757224097E-2</v>
+      </c>
+      <c r="I7" s="5">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>0.63783758453231798</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="2" t="e">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2" t="e">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <f>Ohm!E11 *0.000001</f>
+        <v>10.288863985993599</v>
+      </c>
+      <c r="F10" s="1">
+        <f>Ohm!F11 *0.000001</f>
+        <v>0.12454470184746999</v>
+      </c>
+      <c r="G10" s="3">
+        <f>Ohm!G11 *0.000001</f>
+        <v>10.057060184713</v>
+      </c>
+      <c r="H10" s="1">
+        <f>Ohm!H11 *0.000001</f>
+        <v>7.5403803512114592E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>2.2529581652178207E-2</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3">
+        <f>Ohm!E12 *0.000001</f>
+        <v>10.787386114065001</v>
+      </c>
+      <c r="F11" s="1">
+        <f>Ohm!F12 *0.000001</f>
+        <v>4.5491023521859096E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <f>Ohm!G12 *0.000001</f>
+        <v>10.207417001160501</v>
+      </c>
+      <c r="H11" s="1">
+        <f>Ohm!H12 *0.000001</f>
+        <v>4.21003153875864E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>5.3763637156578142E-2</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3">
+        <f>Ohm!E13 *0.000001</f>
+        <v>10.779695222552299</v>
+      </c>
+      <c r="F12" s="1">
+        <f>Ohm!F13 *0.000001</f>
+        <v>2.56744277479415E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <f>Ohm!G13 *0.000001</f>
+        <v>10.2861516474961</v>
+      </c>
+      <c r="H12" s="1">
+        <f>Ohm!H13 *0.000001</f>
+        <v>4.7124531053182102E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>4.5784557435691868E-2</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3">
+        <f>Ohm!E14 *0.000001</f>
+        <v>11.1963851828716</v>
+      </c>
+      <c r="F13" s="1">
+        <f>Ohm!F14 *0.000001</f>
+        <v>4.7309785482806593E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <f>Ohm!G14 *0.000001</f>
+        <v>10.3340180104971</v>
+      </c>
+      <c r="H13" s="1">
+        <f>Ohm!H14 *0.000001</f>
+        <v>5.2360077705779301E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>7.7021927907032162E-2</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
+        <f>Ohm!E15 *0.000001</f>
+        <v>18.1353142480198</v>
+      </c>
+      <c r="F14" s="1">
+        <f>Ohm!F15 *0.000001</f>
+        <v>4.5941161155376192E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <f>Ohm!G15 *0.000001</f>
+        <v>16.865223411679899</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Ohm!H15 *0.000001</f>
+        <v>0.13821348776862902</v>
+      </c>
+      <c r="I14" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>7.003412342185257E-2</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
+        <f>Ohm!E16 *0.000001</f>
+        <v>18.7445927249405</v>
+      </c>
+      <c r="F15" s="1">
+        <f>Ohm!F16 *0.000001</f>
+        <v>6.8405704133084486E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <f>Ohm!G16 *0.000001</f>
+        <v>17.0990333689629</v>
+      </c>
+      <c r="H15" s="1">
+        <f>Ohm!H16 *0.000001</f>
+        <v>9.6072747507406395E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>8.7788482797394221E-2</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3">
+        <f>Ohm!E17 *0.000001</f>
+        <v>2.5429559790085499</v>
+      </c>
+      <c r="F16" s="1">
+        <f>Ohm!F17 *0.000001</f>
+        <v>4.2418746271289396E-3</v>
+      </c>
+      <c r="G16" s="3">
+        <f>Ohm!G17 *0.000001</f>
+        <v>2.3311473577138502</v>
+      </c>
+      <c r="H16" s="1">
+        <f>Ohm!H17 *0.000001</f>
+        <v>2.5794502565571801E-3</v>
+      </c>
+      <c r="I16" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>8.3292287811163698E-2</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3">
+        <f>Ohm!E18 *0.000001</f>
+        <v>2.5536551659775499</v>
+      </c>
+      <c r="F17" s="1">
+        <f>Ohm!F18 *0.000001</f>
+        <v>1.9525559451474099E-3</v>
+      </c>
+      <c r="G17" s="3">
+        <f>Ohm!G18 *0.000001</f>
+        <v>2.33436725332824</v>
+      </c>
+      <c r="H17" s="1">
+        <f>Ohm!H18 *0.000001</f>
+        <v>1.2368732579943901E-3</v>
+      </c>
+      <c r="I17" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>8.5872170828266703E-2</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3">
+        <f>Ohm!E19 *0.000001</f>
+        <v>2.56433247337907</v>
+      </c>
+      <c r="F18" s="1">
+        <f>Ohm!F19 *0.000001</f>
+        <v>3.7213419036972398E-3</v>
+      </c>
+      <c r="G18" s="3">
+        <f>Ohm!G19 *0.000001</f>
+        <v>2.36750694164926</v>
+      </c>
+      <c r="H18" s="1">
+        <f>Ohm!H19 *0.000001</f>
+        <v>2.2181131116511201E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>7.6755075160144584E-2</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3">
+        <f>Ohm!E20 *0.000001</f>
+        <v>2.59091965860735</v>
+      </c>
+      <c r="F19" s="1">
+        <f>Ohm!F20 *0.000001</f>
+        <v>2.9948152324009501E-3</v>
+      </c>
+      <c r="G19" s="3">
+        <f>Ohm!G20 *0.000001</f>
+        <v>2.3707520045141401</v>
+      </c>
+      <c r="H19" s="1">
+        <f>Ohm!H20 *0.000001</f>
+        <v>1.5652687801000198E-3</v>
+      </c>
+      <c r="I19" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>8.4976642699740271E-2</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3">
+        <f>Ohm!E21 *0.000001</f>
+        <v>2.60190289423696</v>
+      </c>
+      <c r="F20" s="1">
+        <f>Ohm!F21 *0.000001</f>
+        <v>4.9793292786432103E-3</v>
+      </c>
+      <c r="G20" s="3">
+        <f>Ohm!G21 *0.000001</f>
+        <v>2.4073984471481698</v>
+      </c>
+      <c r="H20" s="1">
+        <f>Ohm!H21 *0.000001</f>
+        <v>2.2760181529058398E-3</v>
+      </c>
+      <c r="I20" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>7.4754691083823502E-2</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3">
+        <f>Ohm!E22 *0.000001</f>
+        <v>2.6203698336538497</v>
+      </c>
+      <c r="F21" s="1">
+        <f>Ohm!F22 *0.000001</f>
+        <v>1.5155404180522999E-3</v>
+      </c>
+      <c r="G21" s="3">
+        <f>Ohm!G22 *0.000001</f>
+        <v>2.3778142638891397</v>
+      </c>
+      <c r="H21" s="1">
+        <f>Ohm!H22 *0.000001</f>
+        <v>5.9224645903142095E-3</v>
+      </c>
+      <c r="I21" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>9.256539540698723E-2</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <f>AVERAGEIF(Table13[Dev],B26,Table13[R_air mean])</f>
+        <v>8.9395865681530839</v>
+      </c>
+      <c r="F26" s="1">
+        <f>_xlfn.STDEV.P(E2:E5)</f>
+        <v>6.0293604418455639E-2</v>
+      </c>
+      <c r="G26" s="3">
+        <f>AVERAGEIF(Table13[Dev],B26,Table13[R_h2 mean])</f>
+        <v>8.2048396353905169</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" ref="H26" si="0">_xlfn.STDEV.P(G2:G5)</f>
+        <v>4.5125949421761943E-2</v>
+      </c>
+      <c r="I26" s="8">
+        <f>AVERAGEIF(Table13[Dev],B26,Table13[DR/R0])</f>
+        <v>8.2182056978563067E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <f>_xlfn.STDEV.P(I2:I5)</f>
+        <v>1.5147198588571402E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <f>AVERAGEIF(Table13[Dev],B27,Table13[R_air mean])</f>
+        <v>12.795895325103709</v>
+      </c>
+      <c r="F27" s="1">
+        <f>_xlfn.STDEV.P(E6:E7)</f>
+        <v>4.0021291557531899</v>
+      </c>
+      <c r="G27" s="3">
+        <f>AVERAGEIF(Table13[Dev],B27,Table13[R_h2 mean])</f>
+        <v>6.1016435490346996</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ref="H27" si="1">_xlfn.STDEV.P(G6:G7)</f>
+        <v>1.8030427962310025E-2</v>
+      </c>
+      <c r="I27" s="8">
+        <f>AVERAGE(I6:I7)</f>
+        <v>0.47096355561645675</v>
+      </c>
+      <c r="J27" s="1">
+        <f>_xlfn.STDEV.P(I6:I7)</f>
+        <v>0.16687402891586139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3">
+        <f>AVERAGEIF(Table13[Dev],B28,Table13[R_air mean])</f>
+        <v>13.322039579740467</v>
+      </c>
+      <c r="F28" s="1">
+        <f>_xlfn.STDEV.P(E10:E15)</f>
+        <v>3.6326812747573252</v>
+      </c>
+      <c r="G28" s="3">
+        <f>AVERAGEIF(Table13[Dev],B28,Table13[R_h2 mean])</f>
+        <v>12.474817270751585</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ref="H28" si="2">_xlfn.STDEV.P(G10:G15)</f>
+        <v>3.1890168965271952</v>
+      </c>
+      <c r="I28" s="8">
+        <f>AVERAGEIF(Table13[Dev],B28,Table13[DR/R0])</f>
+        <v>5.9487051728454525E-2</v>
+      </c>
+      <c r="J28" s="1">
+        <f>_xlfn.STDEV.P(I10:I15)</f>
+        <v>2.1625810285772335E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3">
+        <f>AVERAGEIF(Table13[Dev],B29,Table13[R_air mean])</f>
+        <v>2.5790226674772216</v>
+      </c>
+      <c r="F29" s="1">
+        <f>_xlfn.STDEV.P(E16:E21)</f>
+        <v>2.7491663213413533E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <f>AVERAGEIF(Table13[Dev],B29,Table13[R_h2 mean])</f>
+        <v>2.3648310447071332</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" ref="H29" si="3">_xlfn.STDEV.P(G16:G21)</f>
+        <v>2.6094058311629913E-2</v>
+      </c>
+      <c r="I29" s="8">
+        <f>AVERAGEIF(Table13[Dev],B29,Table13[DR/R0])</f>
+        <v>8.3036043831687653E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <f>_xlfn.STDEV.P(I16:I21)</f>
+        <v>5.9261442427820986E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="E32" s="9">
+        <f>AVERAGE(I10,I14,I12)</f>
+        <v>4.6116087503240887E-2</v>
+      </c>
+      <c r="G32" s="9">
+        <f>AVERAGE(I11,I13,I15)</f>
+        <v>7.2858015953668184E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="E33" s="9">
+        <f>AVERAGE(I16,I18,I20)</f>
+        <v>7.826735135171059E-2</v>
+      </c>
+      <c r="F33" s="2">
+        <f>_xlfn.STDEV.P(I16,I18,I20)</f>
+        <v>3.645807997262569E-3</v>
+      </c>
+      <c r="G33" s="9">
+        <f>AVERAGE(I17,I19,I21)</f>
+        <v>8.780473631166473E-2</v>
+      </c>
+      <c r="H33" s="2">
+        <f>_xlfn.STDEV.P(I17,I19,I21)</f>
+        <v>3.3860890836532064E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF92AF6A-1BD7-490D-8A6A-97339E990C1F}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.9395865681530839</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.0293604418455639E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.2048396353905169</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.5125949421761943E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8.2182056978563067E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.5147198588571402E-3</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="9">
+        <v>4.6116087503240887E-2</v>
+      </c>
+      <c r="L2" s="9">
+        <v>7.2858015953668184E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12.795895325103709</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.0021291557531899</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.1016435490346996</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.8030427962310025E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.47096355561645675</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.16687402891586139</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9">
+        <v>7.826735135171059E-2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3.645807997262569E-3</v>
+      </c>
+      <c r="L3" s="9">
+        <v>8.780473631166473E-2</v>
+      </c>
+      <c r="M3" s="9">
+        <v>3.3860890836532064E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13.322039579740467</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.6326812747573252</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12.474817270751585</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.1890168965271952</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.9487051728454525E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.1625810285772335E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.5790226674772216</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.7491663213413533E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.3648310447071332</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.6094058311629913E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.3036043831687653E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.9261442427820986E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Measurements/Hydrogen measurements overview device 1479.xlsx
+++ b/Measurements/Hydrogen measurements overview device 1479.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rijk\Documents\MEP\MEP_control_software\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99880809-11E7-4946-9A2C-72190FF4F5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429EC5A4-4B55-420F-B7A7-71AC2E47D82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="11928" activeTab="2" xr2:uid="{047B82AB-767B-4B06-81AC-11CA0B2A0ECE}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8988" activeTab="3" xr2:uid="{047B82AB-767B-4B06-81AC-11CA0B2A0ECE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ohm" sheetId="1" r:id="rId1"/>
     <sheet name="MOhm" sheetId="2" r:id="rId2"/>
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
+    <sheet name="Rho300K" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="94">
   <si>
     <t>Measurements</t>
   </si>
@@ -222,20 +223,161 @@
     <t>DR/R0 Std</t>
   </si>
   <si>
-    <t>Std2</t>
-  </si>
-  <si>
     <t>DR/R0 Air to H2</t>
   </si>
   <si>
     <t>DR/R0 H2 to Air</t>
+  </si>
+  <si>
+    <t>0218_1208_WO3196_h2drop</t>
+  </si>
+  <si>
+    <t>Air to H2</t>
+  </si>
+  <si>
+    <t>No reaction, weird peaks due to main chamber not being grounded</t>
+  </si>
+  <si>
+    <t>0218_1257_WO3196_h2toAir</t>
+  </si>
+  <si>
+    <t>H2 to Air</t>
+  </si>
+  <si>
+    <t>0218_1458_WO3196_65C_airToH2</t>
+  </si>
+  <si>
+    <t>Unstable</t>
+  </si>
+  <si>
+    <t>0218_1552_WO3196_65C_h2ToAir</t>
+  </si>
+  <si>
+    <t>Weird peak when air is introduced</t>
+  </si>
+  <si>
+    <t>0219_1101_WO3196_65C_airToH2</t>
+  </si>
+  <si>
+    <t>0219_1139_WO3196_65C_h2ToAir</t>
+  </si>
+  <si>
+    <t>0220_1500_WO3196_65C_highHz_airToH2</t>
+  </si>
+  <si>
+    <t>0220_1557_WO3196_65C_highHz_airToH2</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Table for report</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
+  <si>
+    <t>Mohm</t>
+  </si>
+  <si>
+    <t>Measurement name</t>
+  </si>
+  <si>
+    <t>0324_1432_WO3196dev9_IVcurve_25</t>
+  </si>
+  <si>
+    <t>0324_1446_WO3196dev9_IVcurve_25</t>
+  </si>
+  <si>
+    <t>0320_1807_WO3196dev7_IVcurve_25</t>
+  </si>
+  <si>
+    <t>No hysteresis, taken after hydrogen measurements</t>
+  </si>
+  <si>
+    <t>0319_1514_WO3196dev7_IVcurve_25</t>
+  </si>
+  <si>
+    <t>Has hysteresis</t>
+  </si>
+  <si>
+    <t>0319_1528_WO3196dev7_IVcurve_25</t>
+  </si>
+  <si>
+    <t>Most recent one before H2 measurements, conatins hysteresis, but should not matter for differential resistance</t>
+  </si>
+  <si>
+    <t>0310_1605_WO3196dev1_IVcurve</t>
+  </si>
+  <si>
+    <t>0310_1546_WO3196dev1_IVcurve</t>
+  </si>
+  <si>
+    <t>Does not show kink, but previous measurement does, so is 4 point</t>
+  </si>
+  <si>
+    <t>R fit -</t>
+  </si>
+  <si>
+    <t>R std -</t>
+  </si>
+  <si>
+    <t>R std +</t>
+  </si>
+  <si>
+    <t>R fit + (Ohm)</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>uc</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>Rho 300K +</t>
+  </si>
+  <si>
+    <t>Rho 300K -</t>
+  </si>
+  <si>
+    <t>Ohm cm</t>
+  </si>
+  <si>
+    <t>Rho mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device </t>
+  </si>
+  <si>
+    <t>Rho std</t>
+  </si>
+  <si>
+    <t>0218_1349_WO3196_prep_iv_curve_25C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,13 +406,31 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -286,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -299,22 +459,41 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="171" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="171" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <numFmt numFmtId="171" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -335,7 +514,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -348,9 +527,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -386,9 +562,3023 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" b="1"/>
+              <a:t>Resistance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" b="1" baseline="0"/>
+              <a:t> versus platinum area</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R_air mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Summary!$B$2:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Area</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8892122873949511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9899608489112204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.260945449073702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.760080636378099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.067957818855234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.576121340625699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5697304488748598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5883148860795835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5DF-4DD0-9D90-2CB8E8CD8FEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R_h2 mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Summary!$B$2:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Area</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.1664391734741244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2432400973069093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.200454614490148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.014506991523049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.402811747963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.546822793540167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3686842488370932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3609778405771733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5DF-4DD0-9D90-2CB8E8CD8FEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1084820336"/>
+        <c:axId val="1149893744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1084820336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1149893744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1149893744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1084820336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Resistance versus platinum perimeter</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12998381452318464"/>
+          <c:y val="0.18969925634295715"/>
+          <c:w val="0.80857174103237095"/>
+          <c:h val="0.69827172645086033"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R_air mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.8892122873949511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9899608489112204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.260945449073702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.760080636378099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.067957818855234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.576121340625699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5697304488748598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5883148860795835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D44B-4C4A-9CAE-787EFF7BC7FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R_h2 mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.1664391734741244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2432400973069093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.200454614490148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.014506991523049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.402811747963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.546822793540167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3686842488370932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3609778405771733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D44B-4C4A-9CAE-787EFF7BC7FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="872086336"/>
+        <c:axId val="1149981936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="872086336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1149981936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1149981936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872086336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32589173228346463"/>
+          <c:y val="0.11747020761402632"/>
+          <c:w val="0.34266076115485566"/>
+          <c:h val="6.6132477874221968E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>DR/R0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs. Area</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DR/R0 AirToH2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Summary!$B$3,Summary!$B$5,Summary!$B$7,Summary!$B$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Summary!$I$3,Summary!$I$5,Summary!$I$7,Summary!$I$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.1310279328715984E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5690112630725683E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6116087503240887E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.826735135171059E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2615-42DD-B887-912BD849699F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DR/R0 H2toAir</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Summary!$B$4,Summary!$B$6,Summary!$B$8,Summary!$B$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Summary!$I$4,Summary!$I$6,Summary!$I$8,Summary!$I$10)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.3053834628410136E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2929290860897796E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2858015953668184E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.780473631166473E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2615-42DD-B887-912BD849699F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1222890992"/>
+        <c:axId val="1149911632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1222890992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1149911632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1149911632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222890992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>DR/R0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs. Area</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Summary!$C$3,Summary!$C$5,Summary!$C$7,Summary!$C$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Summary!$I$3,Summary!$I$5,Summary!$I$7,Summary!$I$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.1310279328715984E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5690112630725683E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6116087503240887E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.826735135171059E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>DR/R0 AirToH2</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A5D-492F-A902-B27C510CF38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Summary!$C$4,Summary!$C$6,Summary!$C$8,Summary!$C$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Summary!$I$4,Summary!$I$6,Summary!$I$8,Summary!$I$10)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.3053834628410136E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2929290860897796E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2858015953668184E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.780473631166473E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>DR/R0 H2toAir</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8A5D-492F-A902-B27C510CF38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1222890992"/>
+        <c:axId val="1149911632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1222890992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1149911632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1149911632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222890992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42454</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>143691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92529</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4354</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0715585-2947-44E9-A058-EA0AB58F1B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>222069</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200297</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89696BA-84B8-4915-94F1-AB6606D9F95F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2569C599-581D-4C3A-8685-B3E03BEF69A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>370114</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318661BD-AAB8-4ED5-8A0D-C3E95CC921B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2B9BE6E-D96E-447D-BADB-5CDD0228ECE7}" name="Table1" displayName="Table1" ref="A2:K22" totalsRowShown="0">
-  <autoFilter ref="A2:K22" xr:uid="{4DAE197E-337D-4384-8BCB-221F7AF7FC6E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2B9BE6E-D96E-447D-BADB-5CDD0228ECE7}" name="Table1" displayName="Table1" ref="A2:K30" totalsRowShown="0">
+  <autoFilter ref="A2:K30" xr:uid="{4DAE197E-337D-4384-8BCB-221F7AF7FC6E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
     <sortCondition ref="A2:A22"/>
   </sortState>
@@ -397,84 +3587,73 @@
     <tableColumn id="7" xr3:uid="{44794E97-A476-4753-9A20-208CF5C0B728}" name="Dev"/>
     <tableColumn id="2" xr3:uid="{D0396E9C-370B-415A-9B5C-B5A0A433D3FB}" name="T (C)"/>
     <tableColumn id="9" xr3:uid="{489B6637-BB50-4C7F-BE59-CFA688DB7947}" name="Type?"/>
-    <tableColumn id="3" xr3:uid="{7F1F1110-11E8-406D-9717-7BA958F50B7B}" name="R_air mean" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{4DF14033-0500-460F-AE80-7C99EE338485}" name="R_air std" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{1949DE0D-5103-4F4B-83AC-80E490C05019}" name="R_h2 mean" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{897795B9-5D51-4341-B1FC-8CFACF4FEFAB}" name="R_h2 std" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{1AB335F1-C6EC-47B0-9A06-76376CA3D3EB}" name="DR/R0" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{7F1F1110-11E8-406D-9717-7BA958F50B7B}" name="R_air mean" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{4DF14033-0500-460F-AE80-7C99EE338485}" name="R_air std" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{1949DE0D-5103-4F4B-83AC-80E490C05019}" name="R_h2 mean" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{897795B9-5D51-4341-B1FC-8CFACF4FEFAB}" name="R_h2 std" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{1AB335F1-C6EC-47B0-9A06-76376CA3D3EB}" name="DR/R0" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>(Table1[[#This Row],[R_air mean]]-Table1[[#This Row],[R_h2 mean]])/Table1[[#This Row],[R_air mean]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B31A0DA0-3EB4-4AC7-AC5A-D151263E12B4}" name="Tau ~ (s)" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{C37E98D5-783C-47AC-A050-0D300D85448F}" name="Notes" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{B31A0DA0-3EB4-4AC7-AC5A-D151263E12B4}" name="Tau ~ (s)" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{C37E98D5-783C-47AC-A050-0D300D85448F}" name="Notes" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C3338AD-2C44-4E29-9336-E26845A1C173}" name="Table13" displayName="Table13" ref="A1:K21" totalsRowShown="0">
-  <autoFilter ref="A1:K21" xr:uid="{F4B4A62A-CF54-4C9C-8159-1A6BEFE8B802}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K5">
-    <sortCondition ref="A1:A21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C3338AD-2C44-4E29-9336-E26845A1C173}" name="Table13" displayName="Table13" ref="A1:K29" totalsRowShown="0">
+  <autoFilter ref="A1:K29" xr:uid="{F4B4A62A-CF54-4C9C-8159-1A6BEFE8B802}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K29">
+    <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{FD68A971-7D64-46A8-96FF-E3289FF3C9A1}" name="Measurements"/>
     <tableColumn id="7" xr3:uid="{6EE69C22-3505-4AE6-B155-A2F6A4AD437D}" name="Dev"/>
     <tableColumn id="2" xr3:uid="{784EC2E1-DA18-4169-A4F5-C48390C69545}" name="T (C)"/>
     <tableColumn id="9" xr3:uid="{B6A67B79-7BBE-4A56-83BE-EB720A8503A6}" name="Type?"/>
-    <tableColumn id="3" xr3:uid="{966645DD-8AD3-45F6-895A-2FA5C83DD732}" name="R_air mean" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{966645DD-8AD3-45F6-895A-2FA5C83DD732}" name="R_air mean" dataDxfId="13">
       <calculatedColumnFormula>Ohm!E3 *0.000001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{71458716-1D1C-4F82-84F8-33861FE55480}" name="R_air std" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{71458716-1D1C-4F82-84F8-33861FE55480}" name="R_air std" dataDxfId="12">
       <calculatedColumnFormula>Ohm!F3 *0.000001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{95CE5156-364C-4588-BDAE-477958ED0660}" name="R_h2 mean" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{95CE5156-364C-4588-BDAE-477958ED0660}" name="R_h2 mean" dataDxfId="11">
       <calculatedColumnFormula>Ohm!G3 *0.000001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{01A494EE-F56E-41B0-8559-CE2FA4F7A621}" name="R_h2 std" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{01A494EE-F56E-41B0-8559-CE2FA4F7A621}" name="R_h2 std" dataDxfId="10">
       <calculatedColumnFormula>Ohm!H3 *0.000001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1779F395-2163-401A-B3F0-C2DCDEE7259E}" name="DR/R0" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{1779F395-2163-401A-B3F0-C2DCDEE7259E}" name="DR/R0" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F8519A5C-6377-4EE5-BD1C-1BBE16966164}" name="Tau ~ (s)" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{65E411F5-0073-4542-A98F-9591DBA6DC7C}" name="Notes" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{F8519A5C-6377-4EE5-BD1C-1BBE16966164}" name="Tau ~ (s)" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{65E411F5-0073-4542-A98F-9591DBA6DC7C}" name="Notes" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{61AF0AB0-3844-4F29-82EB-707D0FC8DE1D}" name="Table5" displayName="Table5" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5" xr:uid="{BB8B2FE4-0567-4A7B-8151-9D0E564A7357}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BF7F95E9-F44C-4B08-AAC7-114557792BD1}" name="Device"/>
-    <tableColumn id="2" xr3:uid="{8D50B662-7459-4A80-9E6F-38A58300B57F}" name="R_air mean" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2E0CA5FE-3B0C-4224-8759-C93FE248A298}" name="Std" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{3E04583B-E626-444D-8604-CDA71617EE47}" name="R_h2 mean" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4C8C02AC-7933-41C5-A95D-D85D9C57AD9E}" name="Std2" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{A0DD0235-EA2B-42A6-9D52-B18E5F570922}" name="DR/R0 Mean" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{88B94BE8-57C7-437F-8BC3-5A6D9D6C8E7D}" name="DR/R0 Std" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7531FC81-B754-44C2-82CD-83361E295759}" name="Table6" displayName="Table6" ref="I1:M3" totalsRowShown="0">
-  <autoFilter ref="I1:M3" xr:uid="{A19B3844-AAB0-490C-9912-7FFCDE871BC0}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6FFE0634-2817-4AEA-9DED-A025EA2B75B9}" name="Device"/>
-    <tableColumn id="2" xr3:uid="{0CBB94C2-E524-42FE-BF7A-AD2EB5D4EDEC}" name="DR/R0 Air to H2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9113EC84-40FA-4B32-B26B-5BC607BE57BF}" name="Std"/>
-    <tableColumn id="4" xr3:uid="{55DDA3F3-60ED-4C12-AAAB-B3C82134F07B}" name="DR/R0 H2 to Air" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{FE667E0D-89D0-44D3-9F79-A7DFE5C04C8E}" name="Std2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{918AD213-AA6B-4DEF-8B2E-30AD2E4A0657}" name="Table3" displayName="Table3" ref="A3:J11" totalsRowShown="0">
+  <autoFilter ref="A3:J11" xr:uid="{2969602E-EF35-4A0D-AA1C-5463E9F01EAB}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{83FED58D-E6A3-450F-8E6B-3659B9B36E44}" name="Device"/>
+    <tableColumn id="2" xr3:uid="{8AD3E0ED-0226-43DC-97F8-28A42A5F72C8}" name="Measurement name"/>
+    <tableColumn id="7" xr3:uid="{8813891D-42E1-4650-B416-9DE6E847B8D3}" name="R fit + (Ohm)" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{B23699C3-B51C-4139-ACC9-E66F2A30EFCC}" name="R std +" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F739BAC3-5B19-4940-AABC-0AC26AFA6846}" name="R fit -" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{17D35223-0577-426E-B210-63CCDC8DDCF0}" name="R std -" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{7F99A17A-D688-431E-9D2A-F74F66A9FC5A}" name="Rho 300K +" dataDxfId="2">
+      <calculatedColumnFormula>Table3[[#This Row],[R fit + (Ohm)]]*$B$1/4*0.0000001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D4D5B934-16DD-4D19-9D4A-212D95C144C4}" name="Rho 300K -" dataDxfId="1">
+      <calculatedColumnFormula>Table3[[#This Row],[R fit -]]*$B$1/4*0.0000001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{9C766DFC-93F3-4817-AD55-CA49A05ACEC5}" name="Rho mean" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(Table3[[#This Row],[Rho 300K +]:[Rho 300K -]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C2CA5BE5-8D22-4A1E-8E11-FA5E26D5F90B}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -777,10 +3956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B78281-BFF3-4055-85B5-C421D227D98E}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,7 +4145,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -998,7 +4177,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1032,7 +4211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1066,7 +4245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +4279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1134,7 +4313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1166,7 +4345,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1198,7 +4377,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1232,7 +4411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1266,7 +4445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1298,7 +4477,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1330,7 +4509,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1362,7 +4541,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1394,7 +4573,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1426,7 +4605,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1458,7 +4637,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1490,32 +4669,285 @@
       <c r="J22" s="3"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="1"/>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="10">
+        <v>62689812.311584704</v>
+      </c>
+      <c r="F23" s="10">
+        <v>6013914.86999497</v>
+      </c>
+      <c r="G23" s="10">
+        <v>63324920.011906803</v>
+      </c>
+      <c r="H23" s="10">
+        <v>794847.64240334195</v>
+      </c>
+      <c r="I23" s="2">
+        <f>(Table1[[#This Row],[R_air mean]]-Table1[[#This Row],[R_h2 mean]])/Table1[[#This Row],[R_air mean]]</f>
+        <v>-1.0130955523769129E-2</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>25</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="4">
+        <v>64014178.065398604</v>
+      </c>
+      <c r="F24" s="4">
+        <v>992719.21797035099</v>
+      </c>
+      <c r="G24" s="4">
+        <v>63709655.430147499</v>
+      </c>
+      <c r="H24" s="4">
+        <v>541543.70859561604</v>
+      </c>
+      <c r="I24" s="2">
+        <f>(Table1[[#This Row],[R_air mean]]-Table1[[#This Row],[R_h2 mean]])/Table1[[#This Row],[R_air mean]]</f>
+        <v>4.7571123218983821E-3</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="12">
+        <v>65</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="2" t="e">
+        <f>(Table1[[#This Row],[R_air mean]]-Table1[[#This Row],[R_h2 mean]])/Table1[[#This Row],[R_air mean]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="2" t="e">
+        <f>(Table1[[#This Row],[R_air mean]]-Table1[[#This Row],[R_h2 mean]])/Table1[[#This Row],[R_air mean]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J26" s="19">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="12">
+        <v>65</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="13">
+        <v>32421830.334672499</v>
+      </c>
+      <c r="F27" s="13">
+        <v>90178.740635860406</v>
+      </c>
+      <c r="G27" s="13">
+        <v>30860638.5452247</v>
+      </c>
+      <c r="H27" s="13">
+        <v>89255.763927034495</v>
+      </c>
+      <c r="I27" s="2">
+        <f>(Table1[[#This Row],[R_air mean]]-Table1[[#This Row],[R_h2 mean]])/Table1[[#This Row],[R_air mean]]</f>
+        <v>4.8152487793948887E-2</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1</v>
+      </c>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="1">
+        <v>32454968.568061601</v>
+      </c>
+      <c r="F28" s="1">
+        <v>112426.594029928</v>
+      </c>
+      <c r="G28" s="1">
+        <v>30977200.7842176</v>
+      </c>
+      <c r="H28" s="1">
+        <v>79306.230025140801</v>
+      </c>
+      <c r="I28" s="2">
+        <f>(Table1[[#This Row],[R_air mean]]-Table1[[#This Row],[R_h2 mean]])/Table1[[#This Row],[R_air mean]]</f>
+        <v>4.5532867509791658E-2</v>
+      </c>
+      <c r="J28" s="19">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="12">
+        <v>65</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="13">
+        <v>24100060.563474901</v>
+      </c>
+      <c r="F29" s="13">
+        <v>89554.273682271494</v>
+      </c>
+      <c r="G29" s="13">
+        <v>23540270.683755599</v>
+      </c>
+      <c r="H29" s="13">
+        <v>17539.001502428298</v>
+      </c>
+      <c r="I29" s="2">
+        <f>(Table1[[#This Row],[R_air mean]]-Table1[[#This Row],[R_h2 mean]])/Table1[[#This Row],[R_air mean]]</f>
+        <v>2.3227737467502362E-2</v>
+      </c>
+      <c r="J29" s="18">
+        <v>2</v>
+      </c>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="14">
+        <v>65</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="15">
+        <v>25065192.704694599</v>
+      </c>
+      <c r="F30" s="15">
+        <v>83795.897871507404</v>
+      </c>
+      <c r="G30" s="15">
+        <v>23051813.1988285</v>
+      </c>
+      <c r="H30" s="15">
+        <v>35670.959254690599</v>
+      </c>
+      <c r="I30" s="2">
+        <f>(Table1[[#This Row],[R_air mean]]-Table1[[#This Row],[R_h2 mean]])/Table1[[#This Row],[R_air mean]]</f>
+        <v>8.0325714212003727E-2</v>
+      </c>
+      <c r="J30" s="20">
+        <v>1</v>
+      </c>
+      <c r="K30" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1529,10 +4961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A36AC5-8A00-49F5-AC80-6AA9165FC44A}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:H33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1540,14 +4972,14 @@
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1730,91 +5162,97 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21">
+        <v>25</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3">
+        <f>Ohm!E23 *0.000001</f>
+        <v>62.689812311584703</v>
+      </c>
+      <c r="F6" s="1">
+        <f>Ohm!F23 *0.000001</f>
+        <v>6.01391486999497</v>
+      </c>
+      <c r="G6" s="3">
+        <f>Ohm!G23 *0.000001</f>
+        <v>63.324920011906798</v>
+      </c>
+      <c r="H6" s="1">
+        <f>Ohm!H23 *0.000001</f>
+        <v>0.79484764240334194</v>
+      </c>
+      <c r="I6" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>-1.0130955523769067E-2</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>25</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3">
+        <f>Ohm!E24 *0.000001</f>
+        <v>64.014178065398596</v>
+      </c>
+      <c r="F7" s="1">
+        <f>Ohm!F24 *0.000001</f>
+        <v>0.9927192179703509</v>
+      </c>
+      <c r="G7" s="3">
+        <f>Ohm!G24 *0.000001</f>
+        <v>63.709655430147492</v>
+      </c>
+      <c r="H7" s="1">
+        <f>Ohm!H24 *0.000001</f>
+        <v>0.54154370859561607</v>
+      </c>
+      <c r="I7" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>4.7571123218983647E-3</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3">
-        <f>Ohm!E7 *0.000001</f>
-        <v>8.7937661693505191</v>
-      </c>
-      <c r="F6" s="1">
-        <f>Ohm!F7 *0.000001</f>
-        <v>1.4577030485162601E-2</v>
-      </c>
-      <c r="G6" s="3">
-        <f>Ohm!G7 *0.000001</f>
-        <v>6.1196739769970101</v>
-      </c>
-      <c r="H6" s="1">
-        <f>Ohm!H7 *0.000001</f>
-        <v>1.3926866834611999E-2</v>
-      </c>
-      <c r="I6" s="5">
-        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
-        <v>0.30408952670059558</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3">
-        <f>Ohm!E8 *0.000001</f>
-        <v>16.798024480856899</v>
-      </c>
-      <c r="F7" s="1">
-        <f>Ohm!F8 *0.000001</f>
-        <v>0.70761049022126299</v>
-      </c>
-      <c r="G7" s="3">
-        <f>Ohm!G8 *0.000001</f>
-        <v>6.0836131210723901</v>
-      </c>
-      <c r="H7" s="1">
-        <f>Ohm!H8 *0.000001</f>
-        <v>1.9567619757224097E-2</v>
-      </c>
-      <c r="I7" s="5">
-        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
-        <v>0.63783758453231798</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
@@ -1832,23 +5270,25 @@
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="1" t="s">
-        <v>23</v>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>31</v>
@@ -1866,640 +5306,1147 @@
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
       <c r="K9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>65</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="3">
+        <f>Ohm!E27 *0.000001</f>
+        <v>32.421830334672499</v>
+      </c>
+      <c r="F10" s="1">
+        <f>Ohm!F27 *0.000001</f>
+        <v>9.0178740635860399E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <f>Ohm!G27 *0.000001</f>
+        <v>30.860638545224699</v>
+      </c>
+      <c r="H10" s="1">
+        <f>Ohm!H27 *0.000001</f>
+        <v>8.9255763927034493E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>4.8152487793948921E-2</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3">
+        <f>Ohm!E28 *0.000001</f>
+        <v>32.454968568061602</v>
+      </c>
+      <c r="F11" s="1">
+        <f>Ohm!F28 *0.000001</f>
+        <v>0.112426594029928</v>
+      </c>
+      <c r="G11" s="3">
+        <f>Ohm!G28 *0.000001</f>
+        <v>30.977200784217597</v>
+      </c>
+      <c r="H11" s="1">
+        <f>Ohm!H28 *0.000001</f>
+        <v>7.9306230025140798E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>4.5532867509791755E-2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12">
+        <v>65</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3">
+        <f>Ohm!E29 *0.000001</f>
+        <v>24.100060563474901</v>
+      </c>
+      <c r="F12" s="1">
+        <f>Ohm!F29 *0.000001</f>
+        <v>8.9554273682271493E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <f>Ohm!G29 *0.000001</f>
+        <v>23.540270683755598</v>
+      </c>
+      <c r="H12" s="1">
+        <f>Ohm!H29 *0.000001</f>
+        <v>1.7539001502428299E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>2.3227737467502441E-2</v>
+      </c>
+      <c r="J12" s="18">
+        <v>2</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14">
+        <v>65</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3">
+        <f>Ohm!E30 *0.000001</f>
+        <v>25.065192704694599</v>
+      </c>
+      <c r="F13" s="1">
+        <f>Ohm!F30 *0.000001</f>
+        <v>8.3795897871507402E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <f>Ohm!G30 *0.000001</f>
+        <v>23.051813198828498</v>
+      </c>
+      <c r="H13" s="1">
+        <f>Ohm!H30 *0.000001</f>
+        <v>3.5670959254690597E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>8.0325714212003824E-2</v>
+      </c>
+      <c r="J13" s="20">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
+        <f>Ohm!E7 *0.000001</f>
+        <v>8.7937661693505191</v>
+      </c>
+      <c r="F14" s="1">
+        <f>Ohm!F7 *0.000001</f>
+        <v>1.4577030485162601E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <f>Ohm!G7 *0.000001</f>
+        <v>6.1196739769970101</v>
+      </c>
+      <c r="H14" s="1">
+        <f>Ohm!H7 *0.000001</f>
+        <v>1.3926866834611999E-2</v>
+      </c>
+      <c r="I14" s="5">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>0.30408952670059558</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
+        <f>Ohm!E8 *0.000001</f>
+        <v>16.798024480856899</v>
+      </c>
+      <c r="F15" s="1">
+        <f>Ohm!F8 *0.000001</f>
+        <v>0.70761049022126299</v>
+      </c>
+      <c r="G15" s="3">
+        <f>Ohm!G8 *0.000001</f>
+        <v>6.0836131210723901</v>
+      </c>
+      <c r="H15" s="1">
+        <f>Ohm!H8 *0.000001</f>
+        <v>1.9567619757224097E-2</v>
+      </c>
+      <c r="I15" s="5">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>0.63783758453231798</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="2" t="e">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="2" t="e">
+        <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="B18">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C18">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E18" s="3">
         <f>Ohm!E11 *0.000001</f>
         <v>10.288863985993599</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F18" s="1">
         <f>Ohm!F11 *0.000001</f>
         <v>0.12454470184746999</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G18" s="3">
         <f>Ohm!G11 *0.000001</f>
         <v>10.057060184713</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H18" s="1">
         <f>Ohm!H11 *0.000001</f>
         <v>7.5403803512114592E-2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I18" s="2">
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>2.2529581652178207E-2</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="1" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
+      <c r="B19">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C19">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E19" s="3">
         <f>Ohm!E12 *0.000001</f>
         <v>10.787386114065001</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F19" s="1">
         <f>Ohm!F12 *0.000001</f>
         <v>4.5491023521859096E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G19" s="3">
         <f>Ohm!G12 *0.000001</f>
         <v>10.207417001160501</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H19" s="1">
         <f>Ohm!H12 *0.000001</f>
         <v>4.21003153875864E-2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I19" s="2">
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>5.3763637156578142E-2</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B12">
+      <c r="B20">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C20">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E20" s="3">
         <f>Ohm!E13 *0.000001</f>
         <v>10.779695222552299</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F20" s="1">
         <f>Ohm!F13 *0.000001</f>
         <v>2.56744277479415E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G20" s="3">
         <f>Ohm!G13 *0.000001</f>
         <v>10.2861516474961</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H20" s="1">
         <f>Ohm!H13 *0.000001</f>
         <v>4.7124531053182102E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I20" s="2">
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>4.5784557435691868E-2</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C13">
+      <c r="C21">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E21" s="3">
         <f>Ohm!E14 *0.000001</f>
         <v>11.1963851828716</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F21" s="1">
         <f>Ohm!F14 *0.000001</f>
         <v>4.7309785482806593E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G21" s="3">
         <f>Ohm!G14 *0.000001</f>
         <v>10.3340180104971</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H21" s="1">
         <f>Ohm!H14 *0.000001</f>
         <v>5.2360077705779301E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I21" s="2">
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>7.7021927907032162E-2</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="1" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
+      <c r="B22">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="C22">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E22" s="3">
         <f>Ohm!E15 *0.000001</f>
         <v>18.1353142480198</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F22" s="1">
         <f>Ohm!F15 *0.000001</f>
         <v>4.5941161155376192E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G22" s="3">
         <f>Ohm!G15 *0.000001</f>
         <v>16.865223411679899</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H22" s="1">
         <f>Ohm!H15 *0.000001</f>
         <v>0.13821348776862902</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I22" s="2">
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>7.003412342185257E-2</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="1" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
+      <c r="B23">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C23">
         <v>65</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E23" s="3">
         <f>Ohm!E16 *0.000001</f>
         <v>18.7445927249405</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F23" s="1">
         <f>Ohm!F16 *0.000001</f>
         <v>6.8405704133084486E-2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G23" s="3">
         <f>Ohm!G16 *0.000001</f>
         <v>17.0990333689629</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H23" s="1">
         <f>Ohm!H16 *0.000001</f>
         <v>9.6072747507406395E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I23" s="2">
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>8.7788482797394221E-2</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
+      <c r="B24">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C24">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E24" s="3">
         <f>Ohm!E17 *0.000001</f>
         <v>2.5429559790085499</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F24" s="1">
         <f>Ohm!F17 *0.000001</f>
         <v>4.2418746271289396E-3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G24" s="3">
         <f>Ohm!G17 *0.000001</f>
         <v>2.3311473577138502</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H24" s="1">
         <f>Ohm!H17 *0.000001</f>
         <v>2.5794502565571801E-3</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I24" s="2">
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>8.3292287811163698E-2</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
+      <c r="B25">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C25">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E25" s="3">
         <f>Ohm!E18 *0.000001</f>
         <v>2.5536551659775499</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F25" s="1">
         <f>Ohm!F18 *0.000001</f>
         <v>1.9525559451474099E-3</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G25" s="3">
         <f>Ohm!G18 *0.000001</f>
         <v>2.33436725332824</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H25" s="1">
         <f>Ohm!H18 *0.000001</f>
         <v>1.2368732579943901E-3</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I25" s="2">
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>8.5872170828266703E-2</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
+      <c r="B26">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C26">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E26" s="3">
         <f>Ohm!E19 *0.000001</f>
         <v>2.56433247337907</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F26" s="1">
         <f>Ohm!F19 *0.000001</f>
         <v>3.7213419036972398E-3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G26" s="3">
         <f>Ohm!G19 *0.000001</f>
         <v>2.36750694164926</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H26" s="1">
         <f>Ohm!H19 *0.000001</f>
         <v>2.2181131116511201E-3</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I26" s="2">
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>7.6755075160144584E-2</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
+      <c r="B27">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="C27">
         <v>65</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E27" s="3">
         <f>Ohm!E20 *0.000001</f>
         <v>2.59091965860735</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F27" s="1">
         <f>Ohm!F20 *0.000001</f>
         <v>2.9948152324009501E-3</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G27" s="3">
         <f>Ohm!G20 *0.000001</f>
         <v>2.3707520045141401</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H27" s="1">
         <f>Ohm!H20 *0.000001</f>
         <v>1.5652687801000198E-3</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I27" s="2">
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>8.4976642699740271E-2</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
+      <c r="B28">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="C28">
         <v>65</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E28" s="3">
         <f>Ohm!E21 *0.000001</f>
         <v>2.60190289423696</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F28" s="1">
         <f>Ohm!F21 *0.000001</f>
         <v>4.9793292786432103E-3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G28" s="3">
         <f>Ohm!G21 *0.000001</f>
         <v>2.4073984471481698</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H28" s="1">
         <f>Ohm!H21 *0.000001</f>
         <v>2.2760181529058398E-3</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I28" s="2">
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>7.4754691083823502E-2</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
+      <c r="B29">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C29">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E29" s="3">
         <f>Ohm!E22 *0.000001</f>
         <v>2.6203698336538497</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F29" s="1">
         <f>Ohm!F22 *0.000001</f>
         <v>1.5155404180522999E-3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G29" s="3">
         <f>Ohm!G22 *0.000001</f>
         <v>2.3778142638891397</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H29" s="1">
         <f>Ohm!H22 *0.000001</f>
         <v>5.9224645903142095E-3</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I29" s="2">
         <f>(Table13[[#This Row],[R_air mean]]-Table13[[#This Row],[R_h2 mean]])/Table13[[#This Row],[R_air mean]]</f>
         <v>9.256539540698723E-2</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
         <v>3</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F33" t="s">
         <v>42</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G33" t="s">
         <v>5</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H33" t="s">
         <v>42</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I33" t="s">
         <v>43</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B26">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B34">
         <v>1</v>
       </c>
-      <c r="E26" s="3">
-        <f>AVERAGEIF(Table13[Dev],B26,Table13[R_air mean])</f>
-        <v>8.9395865681530839</v>
-      </c>
-      <c r="F26" s="1">
-        <f>_xlfn.STDEV.P(E2:E5)</f>
-        <v>6.0293604418455639E-2</v>
-      </c>
-      <c r="G26" s="3">
-        <f>AVERAGEIF(Table13[Dev],B26,Table13[R_h2 mean])</f>
-        <v>8.2048396353905169</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" ref="H26" si="0">_xlfn.STDEV.P(G2:G5)</f>
-        <v>4.5125949421761943E-2</v>
-      </c>
-      <c r="I26" s="8">
-        <f>AVERAGEIF(Table13[Dev],B26,Table13[DR/R0])</f>
-        <v>8.2182056978563067E-2</v>
-      </c>
-      <c r="J26" s="1">
-        <f>_xlfn.STDEV.P(I2:I5)</f>
-        <v>1.5147198588571402E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B27">
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3">
+        <f>AVERAGE(E2,E4)</f>
+        <v>8.8892122873949511</v>
+      </c>
+      <c r="F34" s="3">
+        <f>_xlfn.STDEV.P(E2,E4)</f>
+        <v>2.0687369747899531E-2</v>
+      </c>
+      <c r="G34" s="3">
+        <f>AVERAGE(G2,G4)</f>
+        <v>8.1664391734741244</v>
+      </c>
+      <c r="H34" s="3">
+        <f>_xlfn.STDEV.P(G2,G4)</f>
+        <v>2.3826503448945324E-2</v>
+      </c>
+      <c r="I34" s="2">
+        <f>AVERAGE(I2,I4)</f>
+        <v>8.1310279328715984E-2</v>
+      </c>
+      <c r="J34" s="2">
+        <f>_xlfn.STDEV.P(I2,I4)</f>
+        <v>5.4236858767121171E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3">
+        <f>AVERAGE(E3,E5)</f>
+        <v>8.9899608489112204</v>
+      </c>
+      <c r="F35" s="3">
+        <f>_xlfn.STDEV.P(E3,E5)</f>
+        <v>4.2042048911219432E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <f>AVERAGE(G3,G5)</f>
+        <v>8.2432400973069093</v>
+      </c>
+      <c r="H35" s="3">
+        <f>_xlfn.STDEV.P(G3,G5)</f>
+        <v>2.3575610385389467E-2</v>
+      </c>
+      <c r="I35" s="2">
+        <f>AVERAGE(I3,I5)</f>
+        <v>8.3053834628410136E-2</v>
+      </c>
+      <c r="J35" s="2">
+        <f>_xlfn.STDEV.P(I3,I5)</f>
+        <v>1.6657119424420691E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="3">
+        <f>AVERAGE(E10,E12)</f>
+        <v>28.260945449073702</v>
+      </c>
+      <c r="F36" s="3">
+        <f>_xlfn.STDEV.P(E10,E12)</f>
+        <v>4.1608848855987954</v>
+      </c>
+      <c r="G36" s="3">
+        <f>AVERAGE(G10,G12)</f>
+        <v>27.200454614490148</v>
+      </c>
+      <c r="H36" s="3">
+        <f>_xlfn.STDEV.P(G10,G12)</f>
+        <v>3.6601839307345454</v>
+      </c>
+      <c r="I36" s="2">
+        <f>AVERAGE(I10,I12)</f>
+        <v>3.5690112630725683E-2</v>
+      </c>
+      <c r="J36" s="2">
+        <f>_xlfn.STDEV.P(I10,I12)</f>
+        <v>1.2462375163223242E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="3">
+        <f>AVERAGE(E11,E13)</f>
+        <v>28.760080636378099</v>
+      </c>
+      <c r="F37" s="3">
+        <f>_xlfn.STDEV.P(E11,E13)</f>
+        <v>3.6948879316835241</v>
+      </c>
+      <c r="G37" s="3">
+        <f>AVERAGE(G11,G13)</f>
+        <v>27.014506991523049</v>
+      </c>
+      <c r="H37" s="3">
+        <f>_xlfn.STDEV.P(G11,G13)</f>
+        <v>3.9626937926945445</v>
+      </c>
+      <c r="I37" s="2">
+        <f>AVERAGE(I11,I13)</f>
+        <v>6.2929290860897796E-2</v>
+      </c>
+      <c r="J37" s="2">
+        <f>_xlfn.STDEV.P(I11,I13)</f>
+        <v>1.739642335110601E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3">
+        <f>AVERAGE(E18,E20,E22)</f>
+        <v>13.067957818855234</v>
+      </c>
+      <c r="F38" s="3">
+        <f>_xlfn.STDEV.P(E18,E20,E22)</f>
+        <v>3.5887606691671858</v>
+      </c>
+      <c r="G38" s="3">
+        <f>AVERAGE(G18,G20,G22)</f>
+        <v>12.402811747963</v>
+      </c>
+      <c r="H38" s="3">
+        <f>_xlfn.STDEV.P(G18,G20,G22)</f>
+        <v>3.1567873032496747</v>
+      </c>
+      <c r="I38" s="2">
+        <f>AVERAGE(I18,I20,I22)</f>
+        <v>4.6116087503240887E-2</v>
+      </c>
+      <c r="J38" s="2">
+        <f>_xlfn.STDEV.P(I18,I20,I22)</f>
+        <v>1.9395064773045572E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3">
+        <f>AVERAGE(E19,E21,E23)</f>
+        <v>13.576121340625699</v>
+      </c>
+      <c r="F39" s="3">
+        <f>_xlfn.STDEV.P(E19,E21,E23)</f>
+        <v>3.6584734883492867</v>
+      </c>
+      <c r="G39" s="3">
+        <f>AVERAGE(G19,G21,G23)</f>
+        <v>12.546822793540167</v>
+      </c>
+      <c r="H39" s="3">
+        <f>_xlfn.STDEV.P(G19,G21,G23)</f>
+        <v>3.2193138809518764</v>
+      </c>
+      <c r="I39" s="2">
+        <f>AVERAGE(I19,I21,I23)</f>
+        <v>7.2858015953668184E-2</v>
+      </c>
+      <c r="J39" s="2">
+        <f>_xlfn.STDEV.P(I19,I21,I23)</f>
+        <v>1.4199205430512981E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="3">
+        <f>AVERAGE(E24,E26,E28)</f>
+        <v>2.5697304488748598</v>
+      </c>
+      <c r="F40" s="3">
+        <f>_xlfn.STDEV.P(E24,E26,E28)</f>
+        <v>2.4365799916087349E-2</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" ref="G40:G41" si="0">AVERAGE(G24,G26,G28)</f>
+        <v>2.3686842488370932</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" ref="H40:H41" si="1">_xlfn.STDEV.P(G24,G26,G28)</f>
+        <v>3.1140506302253592E-2</v>
+      </c>
+      <c r="I40" s="2">
+        <f>AVERAGE(I24,I26,I28)</f>
+        <v>7.826735135171059E-2</v>
+      </c>
+      <c r="J40" s="2">
+        <f>_xlfn.STDEV.P(I24,I26,I28)</f>
+        <v>3.645807997262569E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="3">
+        <f>AVERAGE(E25,E27,E29)</f>
+        <v>2.5883148860795835</v>
+      </c>
+      <c r="F41" s="3">
+        <f>_xlfn.STDEV.P(E25,E27,E29)</f>
+        <v>2.7298355881271615E-2</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3609778405771733</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9036130422081767E-2</v>
+      </c>
+      <c r="I41" s="2">
+        <f>AVERAGE(I25,I27,I29)</f>
+        <v>8.780473631166473E-2</v>
+      </c>
+      <c r="J41" s="2">
+        <f>_xlfn.STDEV.P(I25,I27,I29)</f>
+        <v>3.3860890836532064E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="E46" s="8">
+        <f>AVERAGE(I10,I14,I12)</f>
+        <v>0.125156583987349</v>
+      </c>
+      <c r="G46" s="8">
+        <f>AVERAGE(I11,I13,I15)</f>
+        <v>0.25456538875137119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="E47" s="8" t="e">
+        <f>AVERAGE(I16,I18,I20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" s="2" t="e">
+        <f>_xlfn.STDEV.P(I16,I18,I20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G47" s="8" t="e">
+        <f>AVERAGE(I17,I19,I21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H47" s="2" t="e">
+        <f>_xlfn.STDEV.P(I17,I19,I21)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
-        <f>AVERAGEIF(Table13[Dev],B27,Table13[R_air mean])</f>
+      <c r="E51" s="3">
+        <f>AVERAGEIF(Table13[Dev],B51,Table13[R_air mean])</f>
         <v>12.795895325103709</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F51" s="3">
         <f>_xlfn.STDEV.P(E6:E7)</f>
-        <v>4.0021291557531899</v>
-      </c>
-      <c r="G27" s="3">
-        <f>AVERAGEIF(Table13[Dev],B27,Table13[R_h2 mean])</f>
+        <v>0.66218287690694666</v>
+      </c>
+      <c r="G51" s="3">
+        <f>AVERAGEIF(Table13[Dev],B51,Table13[R_h2 mean])</f>
         <v>6.1016435490346996</v>
       </c>
-      <c r="H27" s="1">
-        <f t="shared" ref="H27" si="1">_xlfn.STDEV.P(G6:G7)</f>
-        <v>1.8030427962310025E-2</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="H51" s="3">
+        <f>_xlfn.STDEV.P(G6:G7)</f>
+        <v>0.19236770912034729</v>
+      </c>
+      <c r="I51" s="2">
         <f>AVERAGE(I6:I7)</f>
-        <v>0.47096355561645675</v>
-      </c>
-      <c r="J27" s="1">
+        <v>-2.6869216009353511E-3</v>
+      </c>
+      <c r="J51" s="2">
         <f>_xlfn.STDEV.P(I6:I7)</f>
-        <v>0.16687402891586139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3">
-        <f>AVERAGEIF(Table13[Dev],B28,Table13[R_air mean])</f>
-        <v>13.322039579740467</v>
-      </c>
-      <c r="F28" s="1">
-        <f>_xlfn.STDEV.P(E10:E15)</f>
-        <v>3.6326812747573252</v>
-      </c>
-      <c r="G28" s="3">
-        <f>AVERAGEIF(Table13[Dev],B28,Table13[R_h2 mean])</f>
-        <v>12.474817270751585</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" ref="H28" si="2">_xlfn.STDEV.P(G10:G15)</f>
-        <v>3.1890168965271952</v>
-      </c>
-      <c r="I28" s="8">
-        <f>AVERAGEIF(Table13[Dev],B28,Table13[DR/R0])</f>
-        <v>5.9487051728454525E-2</v>
-      </c>
-      <c r="J28" s="1">
-        <f>_xlfn.STDEV.P(I10:I15)</f>
-        <v>2.1625810285772335E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="E29" s="3">
-        <f>AVERAGEIF(Table13[Dev],B29,Table13[R_air mean])</f>
-        <v>2.5790226674772216</v>
-      </c>
-      <c r="F29" s="1">
-        <f>_xlfn.STDEV.P(E16:E21)</f>
-        <v>2.7491663213413533E-2</v>
-      </c>
-      <c r="G29" s="3">
-        <f>AVERAGEIF(Table13[Dev],B29,Table13[R_h2 mean])</f>
-        <v>2.3648310447071332</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" ref="H29" si="3">_xlfn.STDEV.P(G16:G21)</f>
-        <v>2.6094058311629913E-2</v>
-      </c>
-      <c r="I29" s="8">
-        <f>AVERAGEIF(Table13[Dev],B29,Table13[DR/R0])</f>
-        <v>8.3036043831687653E-2</v>
-      </c>
-      <c r="J29" s="1">
-        <f>_xlfn.STDEV.P(I16:I21)</f>
-        <v>5.9261442427820986E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="E32" s="9">
-        <f>AVERAGE(I10,I14,I12)</f>
-        <v>4.6116087503240887E-2</v>
-      </c>
-      <c r="G32" s="9">
-        <f>AVERAGE(I11,I13,I15)</f>
-        <v>7.2858015953668184E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>9</v>
-      </c>
-      <c r="E33" s="9">
-        <f>AVERAGE(I16,I18,I20)</f>
-        <v>7.826735135171059E-2</v>
-      </c>
-      <c r="F33" s="2">
-        <f>_xlfn.STDEV.P(I16,I18,I20)</f>
-        <v>3.645807997262569E-3</v>
-      </c>
-      <c r="G33" s="9">
-        <f>AVERAGE(I17,I19,I21)</f>
-        <v>8.780473631166473E-2</v>
-      </c>
-      <c r="H33" s="2">
-        <f>_xlfn.STDEV.P(I17,I19,I21)</f>
-        <v>3.3860890836532064E-3</v>
+        <v>7.4440339228337158E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2511,183 +6458,758 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF92AF6A-1BD7-490D-8A6A-97339E990C1F}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>8.9395865681530839</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6.0293604418455639E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8.2048396353905169</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4.5125949421761943E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8.2182056978563067E-2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.5147198588571402E-3</v>
-      </c>
-      <c r="I2">
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.8892122873949511</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.0687369747899531E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8.1664391734741244</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.3826503448945324E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8.1310279328715984E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.4236858767121171E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.9899608489112204</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.2042048911219432E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8.2432400973069093</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.3575610385389467E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8.3053834628410136E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.6657119424420691E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>900</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28.260945449073702</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.1608848855987954</v>
+      </c>
+      <c r="G5" s="1">
+        <v>27.200454614490148</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.6601839307345454</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.5690112630725683E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.2462375163223242E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>900</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>28.760080636378099</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.6948879316835241</v>
+      </c>
+      <c r="G6" s="1">
+        <v>27.014506991523049</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.9626937926945445</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6.2929290860897796E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.7396423351106E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="J2" s="9">
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7">
+        <v>404</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13.067957818855234</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.5887606691671858</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12.402811747963</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.1567873032496747</v>
+      </c>
+      <c r="I7" s="2">
         <v>4.6116087503240887E-2</v>
       </c>
-      <c r="L2" s="9">
+      <c r="J7" s="2">
+        <v>1.9395064773045572E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8">
+        <v>404</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>13.576121340625699</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.6584734883492867</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12.546822793540167</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.2193138809518764</v>
+      </c>
+      <c r="I8" s="2">
         <v>7.2858015953668184E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12.795895325103709</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.0021291557531899</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.1016435490346996</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.8030427962310025E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.47096355561645675</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.16687402891586139</v>
-      </c>
-      <c r="I3">
+      <c r="J8" s="2">
+        <v>1.4199205430512981E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>9</v>
       </c>
-      <c r="J3" s="9">
+      <c r="B9">
+        <v>400</v>
+      </c>
+      <c r="C9">
+        <v>1604</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.5697304488748598</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.4365799916087349E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.3686842488370932</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.1140506302253592E-2</v>
+      </c>
+      <c r="I9" s="2">
         <v>7.826735135171059E-2</v>
       </c>
-      <c r="K3" s="9">
+      <c r="J9" s="2">
         <v>3.645807997262569E-3</v>
       </c>
-      <c r="L3" s="9">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>400</v>
+      </c>
+      <c r="C10">
+        <v>1604</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.5883148860795835</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.7298355881271615E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.3609778405771733</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.9036130422081767E-2</v>
+      </c>
+      <c r="I10" s="2">
         <v>8.780473631166473E-2</v>
       </c>
-      <c r="M3" s="9">
+      <c r="J10" s="2">
         <v>3.3860890836532064E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>13.322039579740467</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.6326812747573252</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12.474817270751585</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.1890168965271952</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5.9487051728454525E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.1625810285772335E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2.5790226674772216</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.7491663213413533E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.3648310447071332</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.6094058311629913E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8.3036043831687653E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5.9261442427820986E-3</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="8">
+        <f>AVERAGE(I3:I10)</f>
+        <v>6.8503713571129249E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <f>_xlfn.STDEV.P(I3:I10)</f>
+        <v>1.7576776568275242E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17F2548-BBE4-489A-8051-2AB1679E2BD2}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="93.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1">
+        <f>D2*B2</f>
+        <v>8.5812999999999988</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10098796.410692399</v>
+      </c>
+      <c r="D4" s="1">
+        <v>29659.028588183399</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11001481.4829018</v>
+      </c>
+      <c r="F4" s="1">
+        <v>28135.046029855901</v>
+      </c>
+      <c r="G4" s="27">
+        <f>Table3[[#This Row],[R fit + (Ohm)]]*$B$1/4*0.0000001</f>
+        <v>2.1665200409768666</v>
+      </c>
+      <c r="H4" s="27">
+        <f>Table3[[#This Row],[R fit -]]*$B$1/4*0.0000001</f>
+        <v>2.36017532623063</v>
+      </c>
+      <c r="I4" s="27">
+        <f>AVERAGE(Table3[[#This Row],[Rho 300K +]:[Rho 300K -]])</f>
+        <v>2.2633476836037483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10421499.650479799</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25468.5186883641</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10554358.8511062</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44772.992287676498</v>
+      </c>
+      <c r="G5" s="27">
+        <f>Table3[[#This Row],[R fit + (Ohm)]]*$B$1/4*0.0000001</f>
+        <v>2.2357503737665572</v>
+      </c>
+      <c r="H5" s="27">
+        <f>Table3[[#This Row],[R fit -]]*$B$1/4*0.0000001</f>
+        <v>2.2642529902249406</v>
+      </c>
+      <c r="I5" s="27">
+        <f>AVERAGE(Table3[[#This Row],[Rho 300K +]:[Rho 300K -]])</f>
+        <v>2.2500016819957489</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
+        <v>69002618.3047252</v>
+      </c>
+      <c r="D6" s="1">
+        <v>139283.04371385201</v>
+      </c>
+      <c r="E6" s="1">
+        <v>69178110.938432202</v>
+      </c>
+      <c r="F6" s="1">
+        <v>138077.83512839899</v>
+      </c>
+      <c r="G6" s="27">
+        <f>Table3[[#This Row],[R fit + (Ohm)]]*$B$1/4*0.0000001</f>
+        <v>14.803304211458455</v>
+      </c>
+      <c r="H6" s="27">
+        <f>Table3[[#This Row],[R fit -]]*$B$1/4*0.0000001</f>
+        <v>14.840953084899205</v>
+      </c>
+      <c r="I6" s="27">
+        <f>AVERAGE(Table3[[#This Row],[Rho 300K +]:[Rho 300K -]])</f>
+        <v>14.822128648178829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1">
+        <v>26203683.6228543</v>
+      </c>
+      <c r="D7" s="1">
+        <v>129552.850378954</v>
+      </c>
+      <c r="E7" s="1">
+        <v>26698563.034045201</v>
+      </c>
+      <c r="F7" s="1">
+        <v>140134.88804957</v>
+      </c>
+      <c r="G7" s="27">
+        <f>Table3[[#This Row],[R fit + (Ohm)]]*$B$1/4*0.0000001</f>
+        <v>5.6215417568199895</v>
+      </c>
+      <c r="H7" s="27">
+        <f>Table3[[#This Row],[R fit -]]*$B$1/4*0.0000001</f>
+        <v>5.7277094741013013</v>
+      </c>
+      <c r="I7" s="27">
+        <f>AVERAGE(Table3[[#This Row],[Rho 300K +]:[Rho 300K -]])</f>
+        <v>5.6746256154606449</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1">
+        <v>26370015.855802</v>
+      </c>
+      <c r="D8" s="1">
+        <v>160424.21191966999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>26924950.607806802</v>
+      </c>
+      <c r="F8" s="1">
+        <v>180008.51550354401</v>
+      </c>
+      <c r="G8" s="27">
+        <f>Table3[[#This Row],[R fit + (Ohm)]]*$B$1/4*0.0000001</f>
+        <v>5.6572254265848416</v>
+      </c>
+      <c r="H8" s="27">
+        <f>Table3[[#This Row],[R fit -]]*$B$1/4*0.0000001</f>
+        <v>5.7762769662693119</v>
+      </c>
+      <c r="I8" s="27">
+        <f>AVERAGE(Table3[[#This Row],[Rho 300K +]:[Rho 300K -]])</f>
+        <v>5.7167511964270767</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4">
+        <v>86343241.476115599</v>
+      </c>
+      <c r="D9" s="4">
+        <v>182964.63906790401</v>
+      </c>
+      <c r="E9" s="4">
+        <v>84534052.429201901</v>
+      </c>
+      <c r="F9" s="4">
+        <v>291484.00190178101</v>
+      </c>
+      <c r="G9" s="28">
+        <f>Table3[[#This Row],[R fit + (Ohm)]]*$B$1/4*0.0000001</f>
+        <v>18.523431451974766</v>
+      </c>
+      <c r="H9" s="28">
+        <f>Table3[[#This Row],[R fit -]]*$B$1/4*0.0000001</f>
+        <v>18.135301602767754</v>
+      </c>
+      <c r="I9" s="28">
+        <f>AVERAGE(Table3[[#This Row],[Rho 300K +]:[Rho 300K -]])</f>
+        <v>18.32936652737126</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4770485.9739427799</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3303.5245307732098</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4797070.8675611597</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1766.67939896396</v>
+      </c>
+      <c r="G10" s="27">
+        <f>Table3[[#This Row],[R fit + (Ohm)]]*$B$1/4*0.0000001</f>
+        <v>1.0234242822048791</v>
+      </c>
+      <c r="H10" s="27">
+        <f>Table3[[#This Row],[R fit -]]*$B$1/4*0.0000001</f>
+        <v>1.0291276058950642</v>
+      </c>
+      <c r="I10" s="27">
+        <f>AVERAGE(Table3[[#This Row],[Rho 300K +]:[Rho 300K -]])</f>
+        <v>1.0262759440499716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4814883.0089860903</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2942.0734250436499</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4827811.7840967001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2828.0674103664801</v>
+      </c>
+      <c r="G11" s="27">
+        <f>Table3[[#This Row],[R fit + (Ohm)]]*$B$1/4*0.0000001</f>
+        <v>1.0329488891253082</v>
+      </c>
+      <c r="H11" s="27">
+        <f>Table3[[#This Row],[R fit -]]*$B$1/4*0.0000001</f>
+        <v>1.0357225315717251</v>
+      </c>
+      <c r="I11" s="27">
+        <f>AVERAGE(Table3[[#This Row],[Rho 300K +]:[Rho 300K -]])</f>
+        <v>1.0343357103485167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="27">
+        <f>AVERAGE(G4:H5)</f>
+        <v>2.2566746827997486</v>
+      </c>
+      <c r="E15" s="1">
+        <f>_xlfn.STDEV.P(G4:H5)</f>
+        <v>6.9526074397965654E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="27">
+        <f>AVERAGE(G6:H6)</f>
+        <v>14.822128648178829</v>
+      </c>
+      <c r="E16" s="1">
+        <f>_xlfn.STDEV.P(G6:H6)</f>
+        <v>1.8824436720374926E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" s="27">
+        <f>AVERAGE(G7:H8)</f>
+        <v>5.6956884059438604</v>
+      </c>
+      <c r="E17" s="1">
+        <f>_xlfn.STDEV.P(G7:H8)</f>
+        <v>6.0201725927798648E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" s="27">
+        <f>AVERAGE(G10:H11)</f>
+        <v>1.030305827199244</v>
+      </c>
+      <c r="E18" s="1">
+        <f>_xlfn.STDEV.P(G10:H11)</f>
+        <v>4.6116789121467914E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
